--- a/02_월별_인보이스_정합성_검증_개선/File/Full_Invoice_Report_ADVANCED.xlsx
+++ b/02_월별_인보이스_정합성_검증_개선/File/Full_Invoice_Report_ADVANCED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Trainingbook\Session6_실습3\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\02_월별_인보이스_정합성_검증_개선\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514A0BC-E79D-4439-9B88-DD8424C9FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA56539A-3256-4738-9354-1840531D7078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32002507-FB41-5D4B-91B4-C3659917347F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32002507-FB41-5D4B-91B4-C3659917347F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,21 +859,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95A5D97-4D3F-6C42-9938-E573084BED26}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>115</v>
       </c>
@@ -902,7 +907,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
@@ -925,7 +930,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -946,7 +951,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -967,7 +972,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -988,7 +993,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="1">
         <v>5</v>
@@ -1009,7 +1014,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="1">
         <v>6</v>
@@ -1030,7 +1035,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="1">
         <v>7</v>
@@ -1051,7 +1056,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1">
         <v>8</v>
@@ -1072,7 +1077,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="1">
         <v>9</v>
@@ -1093,7 +1098,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="1">
         <v>10</v>
@@ -1114,7 +1119,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="1">
         <v>11</v>
@@ -1135,7 +1140,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="1">
         <v>12</v>
@@ -1156,7 +1161,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1184,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1200,7 +1205,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="1">
         <v>3</v>
@@ -1221,7 +1226,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="1">
         <v>4</v>
@@ -1242,7 +1247,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1">
         <v>5</v>
@@ -1263,7 +1268,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="1">
         <v>6</v>
@@ -1284,7 +1289,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="1">
         <v>7</v>
@@ -1305,7 +1310,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="1">
         <v>8</v>
@@ -1326,7 +1331,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1">
         <v>9</v>
@@ -1347,7 +1352,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="1">
         <v>10</v>
@@ -1368,7 +1373,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="1">
         <v>11</v>
@@ -1389,7 +1394,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="1">
         <v>12</v>
@@ -1410,7 +1415,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -1433,7 +1438,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="1">
         <v>2</v>
@@ -1454,7 +1459,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="1">
         <v>3</v>
@@ -1475,7 +1480,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="1">
         <v>4</v>
@@ -1496,7 +1501,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="1">
         <v>5</v>
@@ -1517,7 +1522,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="1">
         <v>6</v>
@@ -1538,7 +1543,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="1">
         <v>7</v>
@@ -1559,7 +1564,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="1">
         <v>8</v>
@@ -1580,7 +1585,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="1">
         <v>9</v>
@@ -1601,7 +1606,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="1">
         <v>10</v>
@@ -1622,7 +1627,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="1">
         <v>11</v>
@@ -1643,7 +1648,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="1">
         <v>12</v>
@@ -1664,7 +1669,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>66</v>
       </c>
@@ -1687,7 +1692,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="1">
         <v>2</v>
@@ -1708,7 +1713,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="1">
         <v>3</v>
@@ -1729,7 +1734,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="1">
         <v>4</v>
@@ -1750,7 +1755,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="1">
         <v>5</v>
@@ -1771,7 +1776,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="1">
         <v>6</v>
@@ -1792,7 +1797,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="1">
         <v>7</v>
@@ -1813,7 +1818,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="1">
         <v>8</v>
@@ -1834,7 +1839,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="1">
         <v>9</v>
@@ -1855,7 +1860,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="1">
         <v>10</v>
@@ -1876,7 +1881,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="1">
         <v>11</v>
@@ -1897,7 +1902,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="1">
         <v>12</v>
@@ -1918,7 +1923,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
@@ -1941,7 +1946,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="1">
         <v>2</v>
@@ -1962,7 +1967,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="1">
         <v>3</v>
@@ -1983,7 +1988,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="1">
         <v>4</v>
@@ -2004,7 +2009,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="1">
         <v>5</v>
@@ -2025,7 +2030,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="1">
         <v>6</v>
@@ -2046,7 +2051,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="1">
         <v>7</v>
@@ -2067,7 +2072,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="1">
         <v>8</v>
@@ -2088,7 +2093,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="1">
         <v>9</v>
@@ -2109,7 +2114,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="1">
         <v>10</v>
@@ -2130,7 +2135,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="1">
         <v>11</v>
@@ -2151,7 +2156,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="1">
         <v>12</v>
